--- a/fyp/matlab/constraint check.xlsx
+++ b/fyp/matlab/constraint check.xlsx
@@ -462,8 +462,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N1044"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,6 +526,38 @@
         <v>6</v>
       </c>
     </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="F14">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.97040000000000004</v>
@@ -564,6 +596,36 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/fyp/matlab/constraint check.xlsx
+++ b/fyp/matlab/constraint check.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="10515" windowHeight="7485"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="10515" windowHeight="7485" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="i = 9, j = 10" sheetId="2" r:id="rId2"/>
     <sheet name="i = 10, j = 9" sheetId="3" r:id="rId3"/>
+    <sheet name="i = 11, j = 9" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
   <si>
     <t xml:space="preserve"> 5843544   7184.89         8   7.723119e+06   3.195451e+01                                          </t>
   </si>
@@ -92,6 +94,42 @@
   <si>
     <t>Lower bound is 4.625465e+06.</t>
   </si>
+  <si>
+    <t>Intlinprog stopped because it exceeded the time limit, options.MaxTime = 14400 (the selected value). The intcon variables</t>
+  </si>
+  <si>
+    <t>are integer within tolerance, options.IntegerTolerance = 1e-05 (the default value).</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>s(:,:,1)</t>
+  </si>
+  <si>
+    <t>s(:,:,2)</t>
+  </si>
+  <si>
+    <t>s(:,:,3)</t>
+  </si>
+  <si>
+    <t>s(:,:,4)</t>
+  </si>
+  <si>
+    <t>s(:,:,5)</t>
+  </si>
+  <si>
+    <t>Optimal objective value is 4.148268e+06.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower bound is 4.585278e+06. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimal objective value is 4.148268e+06. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower bound is 4.570935e+06.   </t>
+  </si>
 </sst>
 </file>
 
@@ -147,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -158,6 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,7 +501,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N1044"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E16" sqref="E16:N16"/>
     </sheetView>
   </sheetViews>
@@ -7103,4 +7142,6855 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K146"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>13962450</v>
+      </c>
+      <c r="B1">
+        <v>14392.2</v>
+      </c>
+      <c r="C1">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6">
+        <v>7365591</v>
+      </c>
+      <c r="E1" s="6">
+        <v>22.088819999999998</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.23050000000000001</v>
+      </c>
+      <c r="G24">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>31</v>
+      </c>
+      <c r="B113" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>32</v>
+      </c>
+      <c r="B131" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>1.55E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>1.55E-2</v>
+      </c>
+      <c r="K145">
+        <v>3.1399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>1.55E-2</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>11721336</v>
+      </c>
+      <c r="B1">
+        <v>14391.81</v>
+      </c>
+      <c r="C1">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6">
+        <v>8145745</v>
+      </c>
+      <c r="E1" s="6">
+        <v>27.132010000000001</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.82240000000000002</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.17760000000000001</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.7631</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.2369</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0.82240000000000002</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0.17760000000000001</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0.7631</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>31</v>
+      </c>
+      <c r="B111" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>32</v>
+      </c>
+      <c r="B129" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>